--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnhTu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnhTu\Desktop\farmstead\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -159,7 +159,14 @@
   </si>
   <si>
     <t>− Check layout
-− Check responsive design</t>
+− Check responsive design
+− Modify Javascript effects
+− Modify some incorrect responsive design</t>
+  </si>
+  <si>
+    <t>− Check layout
+− Check responsive design
+− Modify some incorrect responsive design</t>
   </si>
 </sst>
 </file>
@@ -168,7 +175,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
-    <numFmt numFmtId="170" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -419,7 +426,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,29 +467,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -784,7 +769,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,7 +778,7 @@
     <col min="2" max="2" width="17.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" customWidth="1"/>
     <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="11" max="11" width="30.453125" customWidth="1"/>
+    <col min="11" max="11" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -878,12 +863,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8">
-        <v>44627</v>
+        <v>44624</v>
       </c>
       <c r="D11" s="8">
         <v>44627</v>
@@ -898,7 +883,7 @@
         <v>44627</v>
       </c>
       <c r="H11" s="8">
-        <v>44627</v>
+        <v>44634</v>
       </c>
       <c r="I11" s="11">
         <v>1</v>
@@ -930,7 +915,7 @@
         <v>44629</v>
       </c>
       <c r="H12" s="8">
-        <v>44629</v>
+        <v>44635</v>
       </c>
       <c r="I12" s="11">
         <v>1</v>
@@ -939,7 +924,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -950,7 +935,7 @@
         <v>44629</v>
       </c>
       <c r="D13" s="8">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -959,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="8">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="H13" s="8">
-        <v>44629</v>
+        <v>44635</v>
       </c>
       <c r="I13" s="11">
         <v>1</v>
@@ -971,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -994,7 +979,7 @@
         <v>44631</v>
       </c>
       <c r="H14" s="8">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="I14" s="11">
         <v>1</v>
@@ -1003,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -1035,7 +1020,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -1067,7 +1052,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -1093,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -1115,17 +1100,17 @@
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11:E18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>LAYOUT PROJECT: Farmstead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team size: 2 </t>
   </si>
   <si>
     <t>Name</t>
@@ -89,9 +86,6 @@
       </rPr>
       <t xml:space="preserve"> Tran Duc Thanh</t>
     </r>
-  </si>
-  <si>
-    <t>Last modified: March 9, 2022</t>
   </si>
   <si>
     <t>Tu</t>
@@ -160,13 +154,52 @@
   <si>
     <t>− Check layout
 − Check responsive design
-− Modify Javascript effects
 − Modify some incorrect responsive design</t>
   </si>
   <si>
     <t>− Check layout
 − Check responsive design
-− Modify some incorrect responsive design</t>
+− Modify Javascript effects
+− Modify some incorrect responsive design
+− Modify some incorrect effects</t>
+  </si>
+  <si>
+    <t>− Check layout
+− Check responsive design
+− Modify some incorrect responsive design
+− Add Javascript to effects on header</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Team size:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+  </si>
+  <si>
+    <t>Last modified: March 18, 2022</t>
+  </si>
+  <si>
+    <t>− Check layout
+− Check responsive design
+− Modify some incorrect responsive design
+− Modify some incorrect effects</t>
   </si>
 </sst>
 </file>
@@ -411,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -438,12 +471,6 @@
     <xf numFmtId="9" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -461,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -768,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,7 +813,7 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -806,66 +836,64 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.65">
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>44624</v>
@@ -877,27 +905,27 @@
         <v>1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="8">
         <v>44627</v>
       </c>
       <c r="H11" s="8">
-        <v>44634</v>
+        <v>44636</v>
       </c>
       <c r="I11" s="11">
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8">
         <v>44629</v>
@@ -909,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" s="8">
         <v>44629</v>
@@ -921,15 +949,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8">
         <v>44629</v>
@@ -941,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" s="8">
         <v>44630</v>
@@ -953,15 +981,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
         <v>44630</v>
@@ -973,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14" s="8">
         <v>44631</v>
@@ -985,15 +1013,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8">
         <v>44634</v>
@@ -1005,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="8">
         <v>44635</v>
@@ -1017,15 +1045,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8">
         <v>44635</v>
@@ -1037,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8">
         <v>44635</v>
@@ -1049,58 +1077,74 @@
         <v>1</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8">
         <v>44634</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="8">
+        <v>44634</v>
+      </c>
       <c r="E17" s="11">
         <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="G17" s="8">
+        <v>44638</v>
+      </c>
+      <c r="H17" s="8">
+        <v>44638</v>
+      </c>
       <c r="I17" s="11">
         <v>1</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44637</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44637</v>
+      </c>
       <c r="E18" s="11">
         <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="G18" s="8">
+        <v>44638</v>
+      </c>
+      <c r="H18" s="8">
+        <v>44638</v>
+      </c>
       <c r="I18" s="11">
         <v>1</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="14" t="s">
-        <v>26</v>
+      <c r="J18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
